--- a/user_db.xlsx
+++ b/user_db.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qazxswplmnji@12</t>
+          <t>code@1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57fe3c0bbecbbfda04a0af27cd75ff75</t>
+          <t>bc57a69918368bd0c3ab0a5474bcfc7f</t>
         </is>
       </c>
     </row>
